--- a/biology/Médecine/1466_en_santé_et_médecine/1466_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1466_en_santé_et_médecine/1466_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1466_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1466_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1466 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1466_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1466_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27 février : les revenus de la première loterie mentionnée dans les pays européens, organisée à Bruges par la veuve du peintre Van Eyck à l'occasion du vingt-cinquième anniversaire de sa mort, sont réservés au soutien des pauvres de la ville[1].
-24 avril : fondation à Haubourdin, en Flandre, par Jean de Luxembourg, seigneur du lieu, et par sa femme, Jacqueline de La Trémoille, d'un hôpital de neuf lits, « sept pour héberger les pauvres passants pour une nuit à une fois et les deux autres lits pour les pauvres femmes passantes[2] ».
-Jean Cochet fonde à Saint-Aubin-du-Cormier, en Bretagne, un hôpital qu'il place sous l'invocation de saint Antoine et qui perdurera jusqu'en 1790[3].
-L'hospice du Petit-Saint-Bernard, dans les Alpes, est placé sous la tutelle de celui du Grand-Saint-Bernard[4].
-Les revenus de l'hôpital d'Aubrac ayant sévérement diminué, il s'avère nécessaire de renoncer à recevoir les voyageurs à titre bénévole pour maintenir la gratuité des soins aux malades[5].
-Vers 1466 : fondation à Liège en Flandre de l'hôpital des Cellites[6].
-1466-1467 : fondation à Lille de l'hôpital Saint-Jean-Baptiste, dit hospice Gantois, du surnom de Jean de la Cambe, son fondateur[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27 février : les revenus de la première loterie mentionnée dans les pays européens, organisée à Bruges par la veuve du peintre Van Eyck à l'occasion du vingt-cinquième anniversaire de sa mort, sont réservés au soutien des pauvres de la ville.
+24 avril : fondation à Haubourdin, en Flandre, par Jean de Luxembourg, seigneur du lieu, et par sa femme, Jacqueline de La Trémoille, d'un hôpital de neuf lits, « sept pour héberger les pauvres passants pour une nuit à une fois et les deux autres lits pour les pauvres femmes passantes ».
+Jean Cochet fonde à Saint-Aubin-du-Cormier, en Bretagne, un hôpital qu'il place sous l'invocation de saint Antoine et qui perdurera jusqu'en 1790.
+L'hospice du Petit-Saint-Bernard, dans les Alpes, est placé sous la tutelle de celui du Grand-Saint-Bernard.
+Les revenus de l'hôpital d'Aubrac ayant sévérement diminué, il s'avère nécessaire de renoncer à recevoir les voyageurs à titre bénévole pour maintenir la gratuité des soins aux malades.
+Vers 1466 : fondation à Liège en Flandre de l'hôpital des Cellites.
+1466-1467 : fondation à Lille de l'hôpital Saint-Jean-Baptiste, dit hospice Gantois, du surnom de Jean de la Cambe, son fondateur.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1466_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1466_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Arnault de Zwolle (né en 1400 ou 1401), médecin, astronome et organiste de Philippe le Bon, duc de Bourgogne[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Arnault de Zwolle (né en 1400 ou 1401), médecin, astronome et organiste de Philippe le Bon, duc de Bourgogne,.
 </t>
         </is>
       </c>
